--- a/Supports files/resource_dd_devision.xlsx
+++ b/Supports files/resource_dd_devision.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laravel\CODE-JS\code-js lms\Supports files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Laravel\Code-js\code-js-lms\Supports files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0818948E-2729-4686-9402-7DAD96E00236}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171867B3-08F4-4CDC-BE96-85FC270A9FF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>History of other areas</t>
   </si>
   <si>
-    <t>class_id</t>
-  </si>
-  <si>
     <t>devision_code</t>
   </si>
   <si>
@@ -641,6 +638,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>dd_class_id</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1021,22 +1021,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:6">
